--- a/500all/speech_level/speeches_CHRG-114hhrg95426.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95426.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. The Subcommittee on the Constitution and Civil Justice will come to order. And without objection, the Chair is authorized to declare recesses of the Committee at any time. And I'll begin with my opening statement. We welcome all of you here this afternoon.    Ten years ago last month, the Supreme Court handed down its now infamous decision Kelo v. City of New London. In that decision the Court held that the government may use its power of eminent domain to take property from homeowners and small businesses and to transfer it to other private entities for economic development purposes.    In Justice O'Connor's words, the Kelo decision pronounced that, ``Under the banner of economic development, all private property is now vulnerable to being taken and transferred to another private owner, so long as it might be upgraded.'' ``Nothing is to prevent a State from replacing any Motel 6 with a Ritz-Carlton, any home with a shopping center, or any farm with a factory.''    The Kelo decision was resoundingly criticized from across all quarters. In the aftermath of the decision, the House voted to express grave disapproval of the decision and overwhelmingly passed the Private Property Rights Protection Act to attempt to legislatively reverse the harmful effects of that decision.    Last Congress, the House once again passed this legislation with 353 Members voting in favor and only 65 Members voting against. Hopefully, during this Congress the Private Property Rights Protection Act will finally become law.    Too many Americans have lost homes and small businesses to eminent domain abuse, forced to watch as private developers replace them with luxury condominiums and other upscale uses. Congress must act to restore Americans' faith in their ability to build, own, and keep their property without fear that the government will take it and give it to someone else.    Unfortunately, the Court's decision in Kelo is not the only threat to property rights in America today. In addition to eminent domain abuse, Americans' property rights are regularly threatened by regulatory actions and land use restrictions that deprive them of the use of their property, often without providing any compensation at all.    These so-called regulatory takings limit property owners' use of their property to such a degree that the regulation effectively takes away most of the value of the property. Yet, unlike in many eminent domain cases, in regulatory takings cases the government rarely volunteers to compensate for the full financial impact the regulatory taking has on the value of the property. Property owners are then forced, often at great expense, to go to court to attempt to vindicate their property rights.    Of additional concern is a series of Supreme Court decisions that have effectively barred the Federal courthouse doors to virtually all takings claims involving State and local governments. Because of these precedents, it is nearly impossible for property owners to file suit in Federal court alleging that a State or local government effected a taking of their property in violation of the Federal Constitution.    I can think of no other instance in which American citizens are denied access to the Federal courts to vindicate their Federal constitutional rights. It's disconcerting that property rights claims are singled out to be confined to State court.    These are but a few of the issues that property owners face in America today. Although there have been several property rights victories in the Supreme Court since Kelo was decided, including the Court's recent holding that the government must pay just compensation when it takes personal property, just as when it takes real property, property rights in America remain at risk despite the Constitution's clear protections for these important rights.    As Chief Justice Rehnquist observed over two decades ago, there is ``no reason why the Takings Clause of the Fifth Amendment, as much a part of the Bill of Rights as the First and Fourth Amendments, should be relegated to the status of a poor relation.''    So we've called today's hearing to examine the current state of property rights in America 10 years after the Kelo decision. I hope the witnesses can help inform us of how property rights are faring in the courts and in the face of increasing government regulation.    The protection of property rights lies at the foundation of American government. John Adams wrote over 200 years ago that property must be secured or liberty cannot exist. Thus, if our children are to live truly in a free society, we must now work to substantially undergird and secure the critical property rights guaranteed to all Americans by the United States Constitution.    And with that, I will now yield to the Ranking Member for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
-    <t>Steve Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair.    The Latin word for city is civitas. Civitas it also is also the root word for civilization, and there is good reason for that. Cities are where civilization happens. It is in cities that we have vibrant hubs of commerce, finance, and trade. It is in cities where people from different backgrounds, people from different regions of a country, immigrants from all over the world meet to do business and get to know each other. It is in cities where media, entertainment, creativity, and artistic expression meld to form both popular culture and high culture.    In our own country, city are where the supreme expressions of American ideals and optimism happen, the melting pot, John Winthrop's shining city upon a hill, which Ronald Reagan used on occasion.    Yet American cities have not fared well since the Second World War. For decades they suffered from White flight, where White residents fled as racial integration threatened exclusively White neighborhoods. Over time, White flight became wealth flight, as people of all backgrounds and races with the means to leave the city did so, leaving cities with financially poor populations, rising crime, and shrinking tax basis, which led to further flight by those who had the financial means to leave, which led to further disinvestment.    As a result of decades of this vicious cycle, our cities are hurting. Given the central role of cities as the engines of commerce and fonts of culture and ideas, it is important that we bring cities back, and the use of eminent domain for economic redevelopment is one potentially important tool for doing so.    While I do not necessary endorse or oppose eminent domain as the best means for revitalizing the cities, I also think it is appropriate for the Supreme Court in Kelo v. City of New London to leave it to States and localities to make that call for themselves. This is because States and local governments are in the best position to understand local conditions and local needs. This is also why in a vast continental-size country like ours we have a Federal system that leaves many policy judgments up to State and local governments.    In criticizing the Kelo decision many people have inappropriately and unhelpfully blurred the distinction between two different questions: Whether using eminent domain for economic development is a good idea or a bad idea on the one hand and whether courts or an elected legislature at the Federal, State, or local level should make the decision as to the first question on the other.    Relying on decades of precedent, Kelo appropriately held that a city could use eminent domain for the public purpose of economic redevelopment. I am sensitive to the fact that eminent domain can be abused. For instance, historically it had been used to target minority communities. So happens minority communities are often those in the cities where the development would be taking place.    But eminent domain for economic development can help some of the very same marginalized communities as urban ills fall disproportionately on those communities. And in Kelo itself, the Court made clear that there are constitutional limits to the use of eminent domain. But eminent domain is a longstanding governmental power, and the Court appropriately reviews exercise of such power deferentially.    Finally, those that would deny the use of eminent domain for economic redevelopment have an obligation to support funding for measures that will help revitalize our cities. We need increased investment in mass transit, including new light rail and bus rapid transit system, and we need those improvements now. We need improvements to existing transportation infrastructure like bridges, tunnels, and roads, and we need them now.    We need stronger enforcement of fair housing laws to ensure equal housing opportunity for urban residents, and we need that now. We need more funding for our public schools so that children can get a good education without forcing families out of the cities, good public education now. To help cities improve their economies and to restore their central role in American life we must do all we can to ensure that revitalization.    And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,36 +67,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    Private ownership of property is vital to our freedom and our prosperity and is one of the most fundamental principles embedded in the Constitution. The Founders realized the importance of property rights by enshrining property rights protections throughout the Constitution, including in the Fifth Amendment, which provides that ``private property'' shall not ``be taken for public use without just compensation.''    However, despite the Constitution's robust protection for private property rights, today Federal, State, and local governments trample on Americans' property rights every day in countless ways. Local governments exact exorbitant fees from developers in exchange for permits, increasing Federal and State regulations prohibit Americans from using their property as they traditionally have, and after the Kelo v. City of New London case, the government is free to seize homes, small businesses, and family farms, and transfer the land to others for private economic development.    The Kelo decision in particular was met with widespread criticism across the political and socioeconomic spectrum. This controversial ruling expanded the ability of State and local governments to exercise eminent domain powers to seize property under the guise of economic development when the public use is as incidental as generating tax revenues or creating jobs.    As the dissenting justices observed, by defining public uses so expansively the result of the Kelo decision is ``effectively to delete the words 'for public use' from the Takings Clause of the Fifth Amendment . . . The specter of condemnation hangs over all property . . . The government now has license to transfer property from those with few resources to those with more. The Founders cannot have intended this perverse result.''    In the wake of this decision, State and local governments can use eminent domain powers to take the property of any individual for nearly any reason. Cities may now bulldoze homes, farms, churches, and small businesses to make way for shopping malls or other developments.    Hopefully, in this Congress we will finally be able to enact legislation to reverse the harmful affects of the Kelo decision. No one should have to live in fear of the government snatching up their home, farm, or business so that another richer, better-connected person may live or work on the land they used to own.    Eminent domain abuse is not the only troubling aspect of the state of property rights in America today. Regulatory takings--takings in which rather than physically invading a property owner's land, the government accomplishes the equivalent by severely restricting the use of property--are also wrongfully depriving owners of their property. As Federal, State, and local regulations increase both in scope and number, regulatory takings will only become more of a problem for property owners.    Under current law it is exceedingly difficult for property owners to recover the losses that result from regulatory takings, and thus property owners must bear the full costs of any public benefits that these regulations may create. However, as the Supreme Court has observed, the Just Compensation Clause is designed to ``bar government from forcing some people alone to bear public burdens which in all fairness and justice should be borne by the public as a whole.''    Unfortunately in the vast majority of regulatory takings cases, the property owner ends up receiving no compensation for the taking. In fact, according to one study, property owners prevailed in less than 10 percent of all regulatory takings cases. These are troubling statistics given the fundamental nature of property rights under our Constitution.    I look forward to the witnesses' testimony on this important subject. The Supreme Court observed in a 1795 opinion that ``possessing property and having it protected is one of the natural, inherent, and unalienable rights of man . . . The preservation of property then is the primary object of the social compact.''    I hope the witnesses can provide their insight into whether this primary object of the Constitution is being met in America today.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentleman.    And I now yield to the Ranking Member of the Committee, Mr. Conyers, for his opening statement.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman.    And welcome to all of the witnesses.    In the wake of the Supreme Court's decision in Kelo, I expressed concern that States and municipalities could use this decision to use their power of eminent domain, intentionally or not, to the detriment of those who are the least politically powerful, namely, the poor, the elderly, and minority communities.    While the power of eminent domain can and historically has been abused, we should allow the States to craft their responses rather than impose potentially awkward and one-size-fits-all Federal legislative responses. Nonetheless, we should keep the following in mind as we consider property rights and the Constitution this afternoon.    To begin with, abuse of the eminent domain power has a long and shameful history of disproportionately impacting minority and other politically marginalized communities. Urban neighborhoods that lacked institutional and political power were often designated as blighted areas, slated for redevelopment through urban renewal programs.    And properties were condemned and land was turned over for private parties, sometimes for what seemed like primarily private benefit. In Detroit, for example, a vibrant working class neighborhood called Poletown was condemned in order to build an automobile plant that was later shut down only a few years after opening, demonstrating firsthand how eminent domain can lead to bad outcomes.    This underscores why it is important that we continue to monitor the facts on the ground to determine whether Federal action is warranted. If the States do not continue to act to protect citizens, Congress should remain ready, willing, and able to do so.    Having said this, it's important to respect principles of federalism before Congress intervenes in eminent domain decisions, an area traditionally reserved to States and localities.    In Kelo, the Supreme Court made clear that States are free to revise their laws accordingly to restrict the use of eminent domain and most have done so. I'm encouraged that at least 43 States have followed that advice and taken steps to limit their own powers of eminent domain to guard against potential abuse. For example, in 2006 Michigan voters approved an amendment to their State constitution to preclude takings for economic development or tax enhancement, among a number of other protections for property owners and tenants.    Given the fact that our system of federalism appears to be working and that most States, by and large, have acted to prevent potential abuse in response to Kelo, Federal intervention is unnecessary and inappropriate at this time. And it's also for this reason that I voted against legislation considered only in the last Congress that would have imposed draconian penalties on States and localities for exercising their eminent domain power for economic redevelopment.    And finally, with respect to the issue of regulatory takings, I note that courts have generally and appropriately made it very difficult for property owners to prevail in such types of cases, for any other result would make it exceptionally difficult for government to regulate. I suspect that's precisely the result that most who oppose government regulation generally and environmental regulation in particular might want. And perhaps they can take solace in the fact that the last four Takings Clause decisions by the Supreme Court came out in favor of the property owner.    We should, however, be very wary of courts undermining implementation of environmental laws and other public health, safety, and welfare regulations by giving an overly broad interpretation of the Takings Clause to require compensation in any but the most extreme and rare circumstances.    And so I welcome this discussion this afternoon. And I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentleman. And all other Members' opening statements, without objection, will be made part of the record.    So let me now introduce our witnesses. Our first witness is Dan Alban, an attorney at the Institute for Justice, a nonprofit public interest law firm that represents people whose rights are being violated by the government. In 2005, the Institute for Justice represented Susette Kelo in her Supreme Court challenge of the taking of her home in New London, Connecticut. Mr. Alban litigates cases protecting free speech, property rights, economic liberty, and other individual liberties in both Federal and State courts.    Glad you're here, sir.    Our second witness is John Groen, an attorney at the Pacific Legal Foundation, the country's oldest public interest legal organization that litigates for property rights, limited government, and free enterprise. Mr. Groen has extensive experience in public policy litigation before all levels of Federal and State courts. He has been directly involved in many of the leading appellate decisions that have shaped land use law in State of Washington and has significant experience before the U.S. Court of Federal Claims in takings cases against the Federal Government.    Welcome, sir.    Our third witness, John Echeverria, a professor of law at Vermont Law School, where he teaches property, public law, and a wide range of environmental and natural resource law courses. Prior to joining the Vermont Law School faculty in 2009, he was for 12 years the executive director of the Georgetown Environmental Law and Policy Institute at Georgetown University Law Center. Professor Echeverria has also served as general counsel of the National Audubon Society and general counsel and conservation director of American Rivers.    Welcome, sir.    Our final witness is Brian Seasholes, director of the Endangered Species Project at Reason Foundation, a nonprofit foundation that produces nonpartisan public policy research on a variety of issues and publishes the critically acclaimed Reason magazine. Mr. Seasholes worked deals with wildlife and land use issues, especially the Endangered Species Act, property rights, wildlife conservation, the effects of wind and energy on wildlife and oil sands. Mr. Seasholes' writing have appeared in Forbes, National Review, The Christian Science Monitor, and the Washington Times.    Each of the witnesses' written statements will be entered into the record in its entirety, and I would ask each witness to summarize his or her testimony in 5 minutes of less.    And to help you stay within that time there is a timing light in front of you. The light will switch from green to yellow indicating that you have 1 minute to conclude your testimony. When the light turns red, it indicates that the witness' 5 minutes have expired.    Now, before I recognize the witnesses, it is the tradition of the Subcommittee that they be sworn. So if you would please stand to be sworn.    Do you solemnly swear that the testimony that you are about to give will be the truth, the whole trust, and nothing but the truth, so help you God?    You may be seated.    Let the record reflect that the witnesses answered in the affirmative.    So now I would recognize the our first witness, Mr. Alban. And, sir, if you'll make sure that microphone is turned on.</t>
   </si>
   <si>
-    <t>Alban</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Alban. Thank you, Chairman Franks and the Ranking Members. I appreciate the opportunity to testify regarding eminent domain abuse, an important issue that has received significant national attention as a result of the Supreme Court's infamous decision 10 years ago in Kelo v. City of New London.    My name is Dan Alban, and I'm attorney at the Institute for Justice, a nationwide, nonprofit public interest law firm that represents people whose constitutional rights are violated by the government. Among the cases we litigate are cases where homes or small businesses are taken by the government through the power of eminent domain and transferred to another private party who is usually wealthier or better connected.    I have represented property owners across the country, from a nonprofit youth boxing center in National City, California, to an elderly piano tuner in Atlantic City, New Jersey, all of whom are fighting this abuse of the eminent domain power.    Perhaps most notably, we represented the homeowners in Kelo v. City of New London, the notorious 2005 case in which the U.S. Supreme Court ruled 5-4 that eminent domain could be used to transfer perfectly fine private homes and businesses to a private developer based simply on the promise of increased tax revenue for the city.    But 10 years later, and after $80 million in taxpayer money was spent, the Fort Trumbull neighborhood where Susette Kelo's little pink house once stood is a barren field that is home to nothing but feral cats. The developer abandoned the project, while Pfizer, the intended beneficiary, closed its plant and left New London.    On Kelo's 10th anniversary in late June, law professors and legal observers described the decision as ``truly horrible,'' ``one of the most destructive and appalling decisions of the modern era,'' and ``the worst Supreme Court decision of the 21st century.'' Overwhelming majorities in every major poll taken after Kelo have condemned the result, and it continues to be wildly unpopular 10 years later.    In the wake of Kelo, 44 States reformed their eminent domain laws, but these State-level reforms vary greatly. Some States did little or nothing to reform their laws, and Kelo opened the flood gates for eminent domain abuse, which tripled in the year after the decision was issued. That's in part because Federal law still allows Federal funds to be spent for condemnations for the benefit of private developers, which continues to encourage widespread eminent domain abuse, as I detail in my written testimony.    The Federal Government should not be complicit in an abuse of power already deemed intolerable by most States. Congress should take action to prevent Federal tax dollars from funding projects that abuse the power of eminent domain by taking private property from one person to give to another private party.    Unfortunately, Congress' previous efforts to restrict the use of Federal funds for eminent domain have been ineffective. Immediately after Kelo was decided in 2005, Senator Christopher Bond introduced an appropriations bill amendment which stated that Federal dollars could not be spent on any project where eminent domain is used for economic development that primarily benefits private entities. This language continues to appear in appropriations bills, including the currently pending bill.    But the Bond amendment has no enforcement mechanism, and thus relies on agencies and grant recipients to police themselves. There is no way for individuals to enforce the spending restriction, and it doesn't appear that any agency has ever investigated or enforced a violation of the spending limitation.    Funding restrictions like the Bond amendment will only work if they can be enforced. Any Federal reform must include an enforcement mechanism to halt Federal funding if the funds are used for a prohibited purpose, as well as a private method of enforcement so that homeowners, tenants, or small business owners who are threatened by the abuse of eminent domain can take action to prevent the misuse of Federal funds.    Reform at the Federal level would not only reduce funding for eminent domain abuse nationwide, but it also would send an important message to the American people. When the power of eminent domain is used so that a richer, better-connected person can live or work on the land you used to own, it tells everyday Americans that their hopes, dreams, and hard work do not matter as much as money and political influence.    Commercial developers everywhere need to be told that they can only obtain property through private negotiation, not government force, and that the Federal Government will not be a party to these forced private-to-private transfers of property.    This Committee is to be commended for continuing to examine this misuse of government power, which violates the property rights of many Americans. I encourage you to enact legislation that would put teeth in the funding restrictions to ensure that Federal funds are not used to support the abuse of the eminent domain power.    Again, thank you for the opportunity to testify on this important issue.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. Thank you, sir.    Mr. Groen, am I pronouncing your name correctly, sir.</t>
   </si>
   <si>
-    <t>Groen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Groen. You have done it very well.</t>
   </si>
   <si>
@@ -115,9 +97,6 @@
     <t xml:space="preserve">    Mr. Franks. Thank you, Mr. Groen.    I would now recognize our third witness, Mr. Echeverria.    Is that the correct pronunciation?</t>
   </si>
   <si>
-    <t>Echeverria</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Echeverria. That's correct.</t>
   </si>
   <si>
@@ -130,9 +109,6 @@
     <t xml:space="preserve">    Mr. Franks. Thank you, sir.    And I would now recognize our fourth and final witness, Mr. Seasholes.    And, sir, if you'd make sure your microphone is on too.</t>
   </si>
   <si>
-    <t>Seasholes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Seasholes. I think it is.</t>
   </si>
   <si>
@@ -343,9 +319,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    I thank the witnesses for your testimony and interaction with the questions that have been asked.    I would state first that I have this dj vu feeling. It's been 10 years since the Kelo decision. I recall some of the debate on the floor of the House of Representatives when we brought a resolution of disapproval on the Kelo decision. And I remember I was queued up to speak right behind Mr. Barney Frank of Massachusetts, and I sat down in the front row with my notepad anticipating that I would take notes on my anticipated rebuttal.    Barney Frank and I had exactly the same position on the Kelo decision, which was an usual thing. And I made the statement then, not having read any of the dissent, that I believe that it struck three words out of the Fifth Amendment, ``for public use,'' which was the point of the question Mr. Goodlatte asked a moment ago. And I go back and read that Fifth Amendment today, and today it reads, ``nor shall private property be taken without just compensation.''    That's an appalling thing to me, and this Congress rose up and rejected that decision. And so I wanted to pose this question, I think first to Mr. Echeverria.    Our Founding Fathers gave us the means to amend the Constitution, and I don't think they actually anticipated Marbury, but it's here and it's a couple of centuries behind us. And so with that in mind, an appropriate way to address this, at least from a technical but not a practical perspective, would be to draft an amendment if we wanted to restore the property rights as understood prior to Kelo. And I'd ask if you could give us some counsel on how one might write such an amendment to restore the property rights as understood before the Kelo decision.</t>
   </si>
   <si>
@@ -379,9 +352,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Mr. Alban, the Kelo decision, do you view that as being broader than the Hawaii Housing Authority v. Midkiff decision, broader in a sense of not protecting private property rights?</t>
   </si>
   <si>
@@ -425,9 +395,6 @@
   </si>
   <si>
     <t>412226</t>
-  </si>
-  <si>
-    <t>Jim Jordan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Jordan. Not a problem.</t>
@@ -868,11 +835,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -892,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -920,11 +883,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -944,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -972,11 +931,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -996,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1024,11 +979,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1048,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1076,11 +1027,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1100,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1128,11 +1075,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1152,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1180,11 +1123,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1204,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1232,11 +1171,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1256,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1284,11 +1219,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1308,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1336,11 +1267,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1360,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1388,11 +1315,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1412,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1440,11 +1363,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1464,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1492,11 +1411,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1516,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1544,11 +1459,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1568,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1594,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1620,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1646,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1672,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1698,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1724,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1750,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1776,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1802,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1828,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1854,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1880,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1906,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1932,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1958,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1984,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2010,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2036,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2062,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2088,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2114,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2140,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2166,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2192,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2218,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2244,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2270,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>38</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2296,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2322,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2348,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2376,11 +2227,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2400,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2426,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2452,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2478,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2504,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2530,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2556,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2582,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2608,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2634,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2660,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2686,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2712,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2738,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2764,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2790,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2816,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2842,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2868,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2894,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2920,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2946,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2972,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2998,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3024,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3050,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3076,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3104,11 +2899,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3128,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>108</v>
-      </c>
-      <c r="G89" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3154,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3180,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
-      </c>
-      <c r="G91" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3206,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3232,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>108</v>
-      </c>
-      <c r="G93" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3258,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3284,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
-      </c>
-      <c r="G95" t="s">
-        <v>109</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3310,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3336,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>108</v>
-      </c>
-      <c r="G97" t="s">
+        <v>100</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
         <v>109</v>
-      </c>
-      <c r="H97" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3364,11 +3139,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3388,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>120</v>
-      </c>
-      <c r="G99" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3414,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3440,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>120</v>
-      </c>
-      <c r="G101" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3466,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3492,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>120</v>
-      </c>
-      <c r="G103" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3518,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3544,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>120</v>
-      </c>
-      <c r="G105" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3570,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3596,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
+        <v>111</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
         <v>120</v>
-      </c>
-      <c r="G107" t="s">
-        <v>121</v>
-      </c>
-      <c r="H107" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3622,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3648,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>120</v>
-      </c>
-      <c r="G109" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3674,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3700,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>120</v>
-      </c>
-      <c r="G111" t="s">
-        <v>121</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3728,11 +3475,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3752,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>136</v>
-      </c>
-      <c r="G113" t="s">
-        <v>137</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3780,11 +3523,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3804,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>136</v>
-      </c>
-      <c r="G115" t="s">
-        <v>137</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3830,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3856,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>136</v>
-      </c>
-      <c r="G117" t="s">
-        <v>137</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3882,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3908,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>136</v>
-      </c>
-      <c r="G119" t="s">
-        <v>137</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3934,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3960,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>136</v>
-      </c>
-      <c r="G121" t="s">
-        <v>137</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3986,13 +3713,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4012,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>136</v>
-      </c>
-      <c r="G123" t="s">
+        <v>126</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
         <v>137</v>
-      </c>
-      <c r="H123" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4038,13 +3761,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4064,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>136</v>
-      </c>
-      <c r="G125" t="s">
-        <v>137</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4092,11 +3811,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95426.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95426.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. The Subcommittee on the Constitution and Civil Justice will come to order. And without objection, the Chair is authorized to declare recesses of the Committee at any time. And I'll begin with my opening statement. We welcome all of you here this afternoon.    Ten years ago last month, the Supreme Court handed down its now infamous decision Kelo v. City of New London. In that decision the Court held that the government may use its power of eminent domain to take property from homeowners and small businesses and to transfer it to other private entities for economic development purposes.    In Justice O'Connor's words, the Kelo decision pronounced that, ``Under the banner of economic development, all private property is now vulnerable to being taken and transferred to another private owner, so long as it might be upgraded.'' ``Nothing is to prevent a State from replacing any Motel 6 with a Ritz-Carlton, any home with a shopping center, or any farm with a factory.''    The Kelo decision was resoundingly criticized from across all quarters. In the aftermath of the decision, the House voted to express grave disapproval of the decision and overwhelmingly passed the Private Property Rights Protection Act to attempt to legislatively reverse the harmful effects of that decision.    Last Congress, the House once again passed this legislation with 353 Members voting in favor and only 65 Members voting against. Hopefully, during this Congress the Private Property Rights Protection Act will finally become law.    Too many Americans have lost homes and small businesses to eminent domain abuse, forced to watch as private developers replace them with luxury condominiums and other upscale uses. Congress must act to restore Americans' faith in their ability to build, own, and keep their property without fear that the government will take it and give it to someone else.    Unfortunately, the Court's decision in Kelo is not the only threat to property rights in America today. In addition to eminent domain abuse, Americans' property rights are regularly threatened by regulatory actions and land use restrictions that deprive them of the use of their property, often without providing any compensation at all.    These so-called regulatory takings limit property owners' use of their property to such a degree that the regulation effectively takes away most of the value of the property. Yet, unlike in many eminent domain cases, in regulatory takings cases the government rarely volunteers to compensate for the full financial impact the regulatory taking has on the value of the property. Property owners are then forced, often at great expense, to go to court to attempt to vindicate their property rights.    Of additional concern is a series of Supreme Court decisions that have effectively barred the Federal courthouse doors to virtually all takings claims involving State and local governments. Because of these precedents, it is nearly impossible for property owners to file suit in Federal court alleging that a State or local government effected a taking of their property in violation of the Federal Constitution.    I can think of no other instance in which American citizens are denied access to the Federal courts to vindicate their Federal constitutional rights. It's disconcerting that property rights claims are singled out to be confined to State court.    These are but a few of the issues that property owners face in America today. Although there have been several property rights victories in the Supreme Court since Kelo was decided, including the Court's recent holding that the government must pay just compensation when it takes personal property, just as when it takes real property, property rights in America remain at risk despite the Constitution's clear protections for these important rights.    As Chief Justice Rehnquist observed over two decades ago, there is ``no reason why the Takings Clause of the Fifth Amendment, as much a part of the Bill of Rights as the First and Fourth Amendments, should be relegated to the status of a poor relation.''    So we've called today's hearing to examine the current state of property rights in America 10 years after the Kelo decision. I hope the witnesses can help inform us of how property rights are faring in the courts and in the face of increasing government regulation.    The protection of property rights lies at the foundation of American government. John Adams wrote over 200 years ago that property must be secured or liberty cannot exist. Thus, if our children are to live truly in a free society, we must now work to substantially undergird and secure the critical property rights guaranteed to all Americans by the United States Constitution.    And with that, I will now yield to the Ranking Member for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you, Mr. Chair.    The Latin word for city is civitas. Civitas it also is also the root word for civilization, and there is good reason for that. Cities are where civilization happens. It is in cities that we have vibrant hubs of commerce, finance, and trade. It is in cities where people from different backgrounds, people from different regions of a country, immigrants from all over the world meet to do business and get to know each other. It is in cities where media, entertainment, creativity, and artistic expression meld to form both popular culture and high culture.    In our own country, city are where the supreme expressions of American ideals and optimism happen, the melting pot, John Winthrop's shining city upon a hill, which Ronald Reagan used on occasion.    Yet American cities have not fared well since the Second World War. For decades they suffered from White flight, where White residents fled as racial integration threatened exclusively White neighborhoods. Over time, White flight became wealth flight, as people of all backgrounds and races with the means to leave the city did so, leaving cities with financially poor populations, rising crime, and shrinking tax basis, which led to further flight by those who had the financial means to leave, which led to further disinvestment.    As a result of decades of this vicious cycle, our cities are hurting. Given the central role of cities as the engines of commerce and fonts of culture and ideas, it is important that we bring cities back, and the use of eminent domain for economic redevelopment is one potentially important tool for doing so.    While I do not necessary endorse or oppose eminent domain as the best means for revitalizing the cities, I also think it is appropriate for the Supreme Court in Kelo v. City of New London to leave it to States and localities to make that call for themselves. This is because States and local governments are in the best position to understand local conditions and local needs. This is also why in a vast continental-size country like ours we have a Federal system that leaves many policy judgments up to State and local governments.    In criticizing the Kelo decision many people have inappropriately and unhelpfully blurred the distinction between two different questions: Whether using eminent domain for economic development is a good idea or a bad idea on the one hand and whether courts or an elected legislature at the Federal, State, or local level should make the decision as to the first question on the other.    Relying on decades of precedent, Kelo appropriately held that a city could use eminent domain for the public purpose of economic redevelopment. I am sensitive to the fact that eminent domain can be abused. For instance, historically it had been used to target minority communities. So happens minority communities are often those in the cities where the development would be taking place.    But eminent domain for economic development can help some of the very same marginalized communities as urban ills fall disproportionately on those communities. And in Kelo itself, the Court made clear that there are constitutional limits to the use of eminent domain. But eminent domain is a longstanding governmental power, and the Court appropriately reviews exercise of such power deferentially.    Finally, those that would deny the use of eminent domain for economic redevelopment have an obligation to support funding for measures that will help revitalize our cities. We need increased investment in mass transit, including new light rail and bus rapid transit system, and we need those improvements now. We need improvements to existing transportation infrastructure like bridges, tunnels, and roads, and we need them now.    We need stronger enforcement of fair housing laws to ensure equal housing opportunity for urban residents, and we need that now. We need more funding for our public schools so that children can get a good education without forcing families out of the cities, good public education now. To help cities improve their economies and to restore their central role in American life we must do all we can to ensure that revitalization.    And I yield back the balance of my time.</t>
   </si>
   <si>
@@ -67,24 +82,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    Private ownership of property is vital to our freedom and our prosperity and is one of the most fundamental principles embedded in the Constitution. The Founders realized the importance of property rights by enshrining property rights protections throughout the Constitution, including in the Fifth Amendment, which provides that ``private property'' shall not ``be taken for public use without just compensation.''    However, despite the Constitution's robust protection for private property rights, today Federal, State, and local governments trample on Americans' property rights every day in countless ways. Local governments exact exorbitant fees from developers in exchange for permits, increasing Federal and State regulations prohibit Americans from using their property as they traditionally have, and after the Kelo v. City of New London case, the government is free to seize homes, small businesses, and family farms, and transfer the land to others for private economic development.    The Kelo decision in particular was met with widespread criticism across the political and socioeconomic spectrum. This controversial ruling expanded the ability of State and local governments to exercise eminent domain powers to seize property under the guise of economic development when the public use is as incidental as generating tax revenues or creating jobs.    As the dissenting justices observed, by defining public uses so expansively the result of the Kelo decision is ``effectively to delete the words 'for public use' from the Takings Clause of the Fifth Amendment . . . The specter of condemnation hangs over all property . . . The government now has license to transfer property from those with few resources to those with more. The Founders cannot have intended this perverse result.''    In the wake of this decision, State and local governments can use eminent domain powers to take the property of any individual for nearly any reason. Cities may now bulldoze homes, farms, churches, and small businesses to make way for shopping malls or other developments.    Hopefully, in this Congress we will finally be able to enact legislation to reverse the harmful affects of the Kelo decision. No one should have to live in fear of the government snatching up their home, farm, or business so that another richer, better-connected person may live or work on the land they used to own.    Eminent domain abuse is not the only troubling aspect of the state of property rights in America today. Regulatory takings--takings in which rather than physically invading a property owner's land, the government accomplishes the equivalent by severely restricting the use of property--are also wrongfully depriving owners of their property. As Federal, State, and local regulations increase both in scope and number, regulatory takings will only become more of a problem for property owners.    Under current law it is exceedingly difficult for property owners to recover the losses that result from regulatory takings, and thus property owners must bear the full costs of any public benefits that these regulations may create. However, as the Supreme Court has observed, the Just Compensation Clause is designed to ``bar government from forcing some people alone to bear public burdens which in all fairness and justice should be borne by the public as a whole.''    Unfortunately in the vast majority of regulatory takings cases, the property owner ends up receiving no compensation for the taking. In fact, according to one study, property owners prevailed in less than 10 percent of all regulatory takings cases. These are troubling statistics given the fundamental nature of property rights under our Constitution.    I look forward to the witnesses' testimony on this important subject. The Supreme Court observed in a 1795 opinion that ``possessing property and having it protected is one of the natural, inherent, and unalienable rights of man . . . The preservation of property then is the primary object of the social compact.''    I hope the witnesses can provide their insight into whether this primary object of the Constitution is being met in America today.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentleman.    And I now yield to the Ranking Member of the Committee, Mr. Conyers, for his opening statement.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Mr. Chairman.    And welcome to all of the witnesses.    In the wake of the Supreme Court's decision in Kelo, I expressed concern that States and municipalities could use this decision to use their power of eminent domain, intentionally or not, to the detriment of those who are the least politically powerful, namely, the poor, the elderly, and minority communities.    While the power of eminent domain can and historically has been abused, we should allow the States to craft their responses rather than impose potentially awkward and one-size-fits-all Federal legislative responses. Nonetheless, we should keep the following in mind as we consider property rights and the Constitution this afternoon.    To begin with, abuse of the eminent domain power has a long and shameful history of disproportionately impacting minority and other politically marginalized communities. Urban neighborhoods that lacked institutional and political power were often designated as blighted areas, slated for redevelopment through urban renewal programs.    And properties were condemned and land was turned over for private parties, sometimes for what seemed like primarily private benefit. In Detroit, for example, a vibrant working class neighborhood called Poletown was condemned in order to build an automobile plant that was later shut down only a few years after opening, demonstrating firsthand how eminent domain can lead to bad outcomes.    This underscores why it is important that we continue to monitor the facts on the ground to determine whether Federal action is warranted. If the States do not continue to act to protect citizens, Congress should remain ready, willing, and able to do so.    Having said this, it's important to respect principles of federalism before Congress intervenes in eminent domain decisions, an area traditionally reserved to States and localities.    In Kelo, the Supreme Court made clear that States are free to revise their laws accordingly to restrict the use of eminent domain and most have done so. I'm encouraged that at least 43 States have followed that advice and taken steps to limit their own powers of eminent domain to guard against potential abuse. For example, in 2006 Michigan voters approved an amendment to their State constitution to preclude takings for economic development or tax enhancement, among a number of other protections for property owners and tenants.    Given the fact that our system of federalism appears to be working and that most States, by and large, have acted to prevent potential abuse in response to Kelo, Federal intervention is unnecessary and inappropriate at this time. And it's also for this reason that I voted against legislation considered only in the last Congress that would have imposed draconian penalties on States and localities for exercising their eminent domain power for economic redevelopment.    And finally, with respect to the issue of regulatory takings, I note that courts have generally and appropriately made it very difficult for property owners to prevail in such types of cases, for any other result would make it exceptionally difficult for government to regulate. I suspect that's precisely the result that most who oppose government regulation generally and environmental regulation in particular might want. And perhaps they can take solace in the fact that the last four Takings Clause decisions by the Supreme Court came out in favor of the property owner.    We should, however, be very wary of courts undermining implementation of environmental laws and other public health, safety, and welfare regulations by giving an overly broad interpretation of the Takings Clause to require compensation in any but the most extreme and rare circumstances.    And so I welcome this discussion this afternoon. And I yield back the balance of my time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. And I thank the gentleman. And all other Members' opening statements, without objection, will be made part of the record.    So let me now introduce our witnesses. Our first witness is Dan Alban, an attorney at the Institute for Justice, a nonprofit public interest law firm that represents people whose rights are being violated by the government. In 2005, the Institute for Justice represented Susette Kelo in her Supreme Court challenge of the taking of her home in New London, Connecticut. Mr. Alban litigates cases protecting free speech, property rights, economic liberty, and other individual liberties in both Federal and State courts.    Glad you're here, sir.    Our second witness is John Groen, an attorney at the Pacific Legal Foundation, the country's oldest public interest legal organization that litigates for property rights, limited government, and free enterprise. Mr. Groen has extensive experience in public policy litigation before all levels of Federal and State courts. He has been directly involved in many of the leading appellate decisions that have shaped land use law in State of Washington and has significant experience before the U.S. Court of Federal Claims in takings cases against the Federal Government.    Welcome, sir.    Our third witness, John Echeverria, a professor of law at Vermont Law School, where he teaches property, public law, and a wide range of environmental and natural resource law courses. Prior to joining the Vermont Law School faculty in 2009, he was for 12 years the executive director of the Georgetown Environmental Law and Policy Institute at Georgetown University Law Center. Professor Echeverria has also served as general counsel of the National Audubon Society and general counsel and conservation director of American Rivers.    Welcome, sir.    Our final witness is Brian Seasholes, director of the Endangered Species Project at Reason Foundation, a nonprofit foundation that produces nonpartisan public policy research on a variety of issues and publishes the critically acclaimed Reason magazine. Mr. Seasholes worked deals with wildlife and land use issues, especially the Endangered Species Act, property rights, wildlife conservation, the effects of wind and energy on wildlife and oil sands. Mr. Seasholes' writing have appeared in Forbes, National Review, The Christian Science Monitor, and the Washington Times.    Each of the witnesses' written statements will be entered into the record in its entirety, and I would ask each witness to summarize his or her testimony in 5 minutes of less.    And to help you stay within that time there is a timing light in front of you. The light will switch from green to yellow indicating that you have 1 minute to conclude your testimony. When the light turns red, it indicates that the witness' 5 minutes have expired.    Now, before I recognize the witnesses, it is the tradition of the Subcommittee that they be sworn. So if you would please stand to be sworn.    Do you solemnly swear that the testimony that you are about to give will be the truth, the whole trust, and nothing but the truth, so help you God?    You may be seated.    Let the record reflect that the witnesses answered in the affirmative.    So now I would recognize the our first witness, Mr. Alban. And, sir, if you'll make sure that microphone is turned on.</t>
   </si>
   <si>
+    <t>Alban</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Alban. Thank you, Chairman Franks and the Ranking Members. I appreciate the opportunity to testify regarding eminent domain abuse, an important issue that has received significant national attention as a result of the Supreme Court's infamous decision 10 years ago in Kelo v. City of New London.    My name is Dan Alban, and I'm attorney at the Institute for Justice, a nationwide, nonprofit public interest law firm that represents people whose constitutional rights are violated by the government. Among the cases we litigate are cases where homes or small businesses are taken by the government through the power of eminent domain and transferred to another private party who is usually wealthier or better connected.    I have represented property owners across the country, from a nonprofit youth boxing center in National City, California, to an elderly piano tuner in Atlantic City, New Jersey, all of whom are fighting this abuse of the eminent domain power.    Perhaps most notably, we represented the homeowners in Kelo v. City of New London, the notorious 2005 case in which the U.S. Supreme Court ruled 5-4 that eminent domain could be used to transfer perfectly fine private homes and businesses to a private developer based simply on the promise of increased tax revenue for the city.    But 10 years later, and after $80 million in taxpayer money was spent, the Fort Trumbull neighborhood where Susette Kelo's little pink house once stood is a barren field that is home to nothing but feral cats. The developer abandoned the project, while Pfizer, the intended beneficiary, closed its plant and left New London.    On Kelo's 10th anniversary in late June, law professors and legal observers described the decision as ``truly horrible,'' ``one of the most destructive and appalling decisions of the modern era,'' and ``the worst Supreme Court decision of the 21st century.'' Overwhelming majorities in every major poll taken after Kelo have condemned the result, and it continues to be wildly unpopular 10 years later.    In the wake of Kelo, 44 States reformed their eminent domain laws, but these State-level reforms vary greatly. Some States did little or nothing to reform their laws, and Kelo opened the flood gates for eminent domain abuse, which tripled in the year after the decision was issued. That's in part because Federal law still allows Federal funds to be spent for condemnations for the benefit of private developers, which continues to encourage widespread eminent domain abuse, as I detail in my written testimony.    The Federal Government should not be complicit in an abuse of power already deemed intolerable by most States. Congress should take action to prevent Federal tax dollars from funding projects that abuse the power of eminent domain by taking private property from one person to give to another private party.    Unfortunately, Congress' previous efforts to restrict the use of Federal funds for eminent domain have been ineffective. Immediately after Kelo was decided in 2005, Senator Christopher Bond introduced an appropriations bill amendment which stated that Federal dollars could not be spent on any project where eminent domain is used for economic development that primarily benefits private entities. This language continues to appear in appropriations bills, including the currently pending bill.    But the Bond amendment has no enforcement mechanism, and thus relies on agencies and grant recipients to police themselves. There is no way for individuals to enforce the spending restriction, and it doesn't appear that any agency has ever investigated or enforced a violation of the spending limitation.    Funding restrictions like the Bond amendment will only work if they can be enforced. Any Federal reform must include an enforcement mechanism to halt Federal funding if the funds are used for a prohibited purpose, as well as a private method of enforcement so that homeowners, tenants, or small business owners who are threatened by the abuse of eminent domain can take action to prevent the misuse of Federal funds.    Reform at the Federal level would not only reduce funding for eminent domain abuse nationwide, but it also would send an important message to the American people. When the power of eminent domain is used so that a richer, better-connected person can live or work on the land you used to own, it tells everyday Americans that their hopes, dreams, and hard work do not matter as much as money and political influence.    Commercial developers everywhere need to be told that they can only obtain property through private negotiation, not government force, and that the Federal Government will not be a party to these forced private-to-private transfers of property.    This Committee is to be commended for continuing to examine this misuse of government power, which violates the property rights of many Americans. I encourage you to enact legislation that would put teeth in the funding restrictions to ensure that Federal funds are not used to support the abuse of the eminent domain power.    Again, thank you for the opportunity to testify on this important issue.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Franks. Thank you, sir.    Mr. Groen, am I pronouncing your name correctly, sir.</t>
   </si>
   <si>
+    <t>Groen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Groen. You have done it very well.</t>
   </si>
   <si>
@@ -97,6 +124,9 @@
     <t xml:space="preserve">    Mr. Franks. Thank you, Mr. Groen.    I would now recognize our third witness, Mr. Echeverria.    Is that the correct pronunciation?</t>
   </si>
   <si>
+    <t>Echeverria</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Echeverria. That's correct.</t>
   </si>
   <si>
@@ -109,6 +139,9 @@
     <t xml:space="preserve">    Mr. Franks. Thank you, sir.    And I would now recognize our fourth and final witness, Mr. Seasholes.    And, sir, if you'd make sure your microphone is on too.</t>
   </si>
   <si>
+    <t>Seasholes</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Seasholes. I think it is.</t>
   </si>
   <si>
@@ -319,6 +352,9 @@
     <t>400220</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman.    I thank the witnesses for your testimony and interaction with the questions that have been asked.    I would state first that I have this dj vu feeling. It's been 10 years since the Kelo decision. I recall some of the debate on the floor of the House of Representatives when we brought a resolution of disapproval on the Kelo decision. And I remember I was queued up to speak right behind Mr. Barney Frank of Massachusetts, and I sat down in the front row with my notepad anticipating that I would take notes on my anticipated rebuttal.    Barney Frank and I had exactly the same position on the Kelo decision, which was an usual thing. And I made the statement then, not having read any of the dissent, that I believe that it struck three words out of the Fifth Amendment, ``for public use,'' which was the point of the question Mr. Goodlatte asked a moment ago. And I go back and read that Fifth Amendment today, and today it reads, ``nor shall private property be taken without just compensation.''    That's an appalling thing to me, and this Congress rose up and rejected that decision. And so I wanted to pose this question, I think first to Mr. Echeverria.    Our Founding Fathers gave us the means to amend the Constitution, and I don't think they actually anticipated Marbury, but it's here and it's a couple of centuries behind us. And so with that in mind, an appropriate way to address this, at least from a technical but not a practical perspective, would be to draft an amendment if we wanted to restore the property rights as understood prior to Kelo. And I'd ask if you could give us some counsel on how one might write such an amendment to restore the property rights as understood before the Kelo decision.</t>
   </si>
   <si>
@@ -352,6 +388,12 @@
     <t>412526</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Chairman.    Mr. Alban, the Kelo decision, do you view that as being broader than the Hawaii Housing Authority v. Midkiff decision, broader in a sense of not protecting private property rights?</t>
   </si>
   <si>
@@ -395,6 +437,12 @@
   </si>
   <si>
     <t>412226</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Jim</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Jordan. Not a problem.</t>
@@ -785,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,7 +841,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,3005 +863,3495 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>36</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G89" t="s">
+        <v>112</v>
+      </c>
       <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G91" t="s">
+        <v>112</v>
+      </c>
       <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>100</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G93" t="s">
+        <v>112</v>
+      </c>
       <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G95" t="s">
+        <v>112</v>
+      </c>
       <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>100</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G97" t="s">
+        <v>112</v>
+      </c>
       <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>111</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G99" t="s">
+        <v>124</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G100" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>111</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G101" t="s">
+        <v>124</v>
+      </c>
       <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>111</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G103" t="s">
+        <v>124</v>
+      </c>
       <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>28</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>111</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G105" t="s">
+        <v>124</v>
+      </c>
       <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>111</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G107" t="s">
+        <v>124</v>
+      </c>
       <c r="H107" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>111</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G109" t="s">
+        <v>124</v>
+      </c>
       <c r="H109" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>111</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>123</v>
+      </c>
+      <c r="G111" t="s">
+        <v>124</v>
+      </c>
       <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>125</v>
+      </c>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>126</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G113" t="s">
+        <v>141</v>
+      </c>
       <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>126</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G115" t="s">
+        <v>141</v>
+      </c>
       <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>126</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G117" t="s">
+        <v>141</v>
+      </c>
       <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G118" t="s">
+        <v>28</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>126</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G119" t="s">
+        <v>141</v>
+      </c>
       <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>126</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G121" t="s">
+        <v>141</v>
+      </c>
       <c r="H121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>126</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G123" t="s">
+        <v>141</v>
+      </c>
       <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>126</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G125" t="s">
+        <v>141</v>
+      </c>
       <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>140</v>
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95426.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95426.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Franks</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412236</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Cohen</t>
   </si>
   <si>
@@ -352,6 +361,9 @@
     <t>400220</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>King</t>
   </si>
   <si>
@@ -386,6 +398,9 @@
   </si>
   <si>
     <t>412526</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>DeSantis</t>
@@ -833,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,7 +856,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -866,3492 +881,3732 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>44</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>36</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>36</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>39</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>39</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>39</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>39</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>36</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>28</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>31</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>31</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>34</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G89" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G91" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H91" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I91" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>28</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G93" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G95" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I95" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>31</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G97" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H97" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I97" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G99" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G101" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I101" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>28</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>31</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I103" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="104" spans="1:9">
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G105" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G107" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I107" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G109" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G111" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G113" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I113" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G115" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I115" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>28</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>31</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G117" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I117" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="118" spans="1:9">
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>28</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G119" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="H119" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>34</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G121" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>31</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>34</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G123" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="H123" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>34</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G125" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="H125" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I125" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>156</v>
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
